--- a/data/lastVersion_student.xlsx
+++ b/data/lastVersion_student.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>رزومه</t>
+  </si>
+  <si>
+    <t>شماره تماس</t>
   </si>
   <si>
     <t>استاد انتخاب شده اول</t>
@@ -73,22 +76,31 @@
     <t>قدرت</t>
   </si>
   <si>
-    <t>دانشگاه تهران</t>
-  </si>
-  <si>
-    <t>یسشبیتمنبمشسبتخهرس</t>
-  </si>
-  <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>ارشد</t>
-  </si>
-  <si>
     <t>تهران</t>
   </si>
   <si>
-    <t>.</t>
+    <t>شسیبشسبمکنتبثس</t>
+  </si>
+  <si>
+    <t>۰۹۱۹</t>
+  </si>
+  <si>
+    <t>اکبر یوسفی</t>
+  </si>
+  <si>
+    <t>شنبه ها بعد از ظهر</t>
+  </si>
+  <si>
+    <t>ممد</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>حسن حسنی</t>
+  </si>
+  <si>
+    <t>یکشنبه</t>
   </si>
 </sst>
 </file>
@@ -457,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -468,13 +480,13 @@
     <col min="3" max="3" width="10.63" customWidth="1"/>
     <col min="4" max="4" width="10.88" customWidth="1"/>
     <col min="5" max="5" width="13.38" customWidth="1"/>
-    <col min="6" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="24.88" customWidth="1"/>
-    <col min="9" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="17" width="7.63" customWidth="1"/>
+    <col min="6" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="24.88" customWidth="1"/>
+    <col min="10" max="12" width="25.5" customWidth="1"/>
+    <col min="13" max="18" width="7.63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +502,7 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -502,32 +514,33 @@
       <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
@@ -537,35 +550,55 @@
       <c r="K2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -573,39 +606,49 @@
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="9"/>
+      <c r="I4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -613,12 +656,15 @@
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -628,12 +674,13 @@
       <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -641,12 +688,13 @@
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -656,12 +704,13 @@
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -669,12 +718,13 @@
       <c r="E10" s="10"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -684,12 +734,13 @@
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -697,12 +748,13 @@
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>6</v>
       </c>
@@ -712,12 +764,13 @@
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -725,12 +778,13 @@
       <c r="E14" s="10"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>7</v>
       </c>
@@ -740,12 +794,13 @@
       <c r="E15" s="10"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -753,12 +808,13 @@
       <c r="E16" s="10"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>8</v>
       </c>
@@ -768,12 +824,13 @@
       <c r="E17" s="10"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -781,12 +838,13 @@
       <c r="E18" s="10"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>9</v>
       </c>
@@ -796,12 +854,13 @@
       <c r="E19" s="10"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -809,12 +868,13 @@
       <c r="E20" s="10"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>10</v>
       </c>
@@ -824,12 +884,13 @@
       <c r="E21" s="10"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -837,12 +898,13 @@
       <c r="E22" s="10"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>11</v>
       </c>
@@ -852,12 +914,13 @@
       <c r="E23" s="10"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -865,12 +928,13 @@
       <c r="E24" s="10"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>12</v>
       </c>
@@ -880,12 +944,13 @@
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -893,12 +958,13 @@
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>13</v>
       </c>
@@ -908,12 +974,13 @@
       <c r="E27" s="10"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -921,12 +988,13 @@
       <c r="E28" s="10"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>14</v>
       </c>
@@ -936,12 +1004,13 @@
       <c r="E29" s="10"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -949,12 +1018,13 @@
       <c r="E30" s="10"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>15</v>
       </c>
@@ -964,12 +1034,13 @@
       <c r="E31" s="10"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -977,12 +1048,13 @@
       <c r="E32" s="10"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>16</v>
       </c>
@@ -992,12 +1064,13 @@
       <c r="E33" s="10"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -1005,12 +1078,13 @@
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -1020,12 +1094,13 @@
       <c r="E35" s="10"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
@@ -1033,12 +1108,13 @@
       <c r="E36" s="10"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>18</v>
       </c>
@@ -1048,12 +1124,13 @@
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -1061,12 +1138,13 @@
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>19</v>
       </c>
@@ -1076,12 +1154,13 @@
       <c r="E39" s="10"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
@@ -1089,12 +1168,13 @@
       <c r="E40" s="10"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>20</v>
       </c>
@@ -1104,12 +1184,13 @@
       <c r="E41" s="10"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -1117,12 +1198,13 @@
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>21</v>
       </c>
@@ -1132,12 +1214,13 @@
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="11"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -1145,12 +1228,13 @@
       <c r="E44" s="10"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>22</v>
       </c>
@@ -1160,12 +1244,13 @@
       <c r="E45" s="10"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="11"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
@@ -1173,12 +1258,13 @@
       <c r="E46" s="10"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>23</v>
       </c>
@@ -1188,12 +1274,13 @@
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -1201,12 +1288,13 @@
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>24</v>
       </c>
@@ -1216,12 +1304,13 @@
       <c r="E49" s="10"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
@@ -1229,12 +1318,13 @@
       <c r="E50" s="10"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>25</v>
       </c>
@@ -1244,12 +1334,13 @@
       <c r="E51" s="10"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
@@ -1257,12 +1348,13 @@
       <c r="E52" s="10"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="11"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>26</v>
       </c>
@@ -1272,12 +1364,13 @@
       <c r="E53" s="10"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="11"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -1285,12 +1378,13 @@
       <c r="E54" s="10"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="11"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>27</v>
       </c>
@@ -1300,12 +1394,13 @@
       <c r="E55" s="10"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -1313,12 +1408,13 @@
       <c r="E56" s="10"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="11"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>28</v>
       </c>
@@ -1328,12 +1424,13 @@
       <c r="E57" s="10"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="11"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -1341,12 +1438,13 @@
       <c r="E58" s="10"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="11"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>29</v>
       </c>
@@ -1356,12 +1454,13 @@
       <c r="E59" s="10"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
@@ -1369,12 +1468,13 @@
       <c r="E60" s="10"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="11"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>30</v>
       </c>
@@ -1384,12 +1484,13 @@
       <c r="E61" s="10"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="11"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
@@ -1397,12 +1498,13 @@
       <c r="E62" s="10"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="11"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>31</v>
       </c>
@@ -1412,12 +1514,13 @@
       <c r="E63" s="10"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="11"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
@@ -1425,12 +1528,13 @@
       <c r="E64" s="10"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>32</v>
       </c>
@@ -1440,12 +1544,13 @@
       <c r="E65" s="10"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
@@ -1453,12 +1558,13 @@
       <c r="E66" s="10"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>33</v>
       </c>
@@ -1468,12 +1574,13 @@
       <c r="E67" s="10"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
@@ -1481,12 +1588,13 @@
       <c r="E68" s="10"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>34</v>
       </c>
@@ -1496,12 +1604,13 @@
       <c r="E69" s="10"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="11"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
@@ -1509,12 +1618,13 @@
       <c r="E70" s="10"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="11"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>35</v>
       </c>
@@ -1524,12 +1634,13 @@
       <c r="E71" s="10"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="11"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="10"/>
@@ -1537,12 +1648,13 @@
       <c r="E72" s="10"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="11"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>36</v>
       </c>
@@ -1552,12 +1664,13 @@
       <c r="E73" s="10"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="11"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
@@ -1565,12 +1678,13 @@
       <c r="E74" s="10"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="11"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>37</v>
       </c>
@@ -1580,12 +1694,13 @@
       <c r="E75" s="10"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="11"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
@@ -1593,12 +1708,13 @@
       <c r="E76" s="10"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="11"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>38</v>
       </c>
@@ -1608,12 +1724,13 @@
       <c r="E77" s="10"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="11"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
@@ -1621,12 +1738,13 @@
       <c r="E78" s="10"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="11"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>39</v>
       </c>
@@ -1636,12 +1754,13 @@
       <c r="E79" s="10"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="11"/>
+      <c r="H79" s="9"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
@@ -1649,12 +1768,13 @@
       <c r="E80" s="10"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="11"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>40</v>
       </c>
@@ -1664,12 +1784,13 @@
       <c r="E81" s="10"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="11"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
@@ -1677,12 +1798,13 @@
       <c r="E82" s="10"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="11"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="11"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>41</v>
       </c>
@@ -1692,12 +1814,13 @@
       <c r="E83" s="10"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="11"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
@@ -1705,12 +1828,13 @@
       <c r="E84" s="10"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="11"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="11"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>42</v>
       </c>
@@ -1720,12 +1844,13 @@
       <c r="E85" s="10"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="11"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="11"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
@@ -1733,12 +1858,13 @@
       <c r="E86" s="10"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="11"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="11"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>43</v>
       </c>
@@ -1748,12 +1874,13 @@
       <c r="E87" s="10"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="11"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="11"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
@@ -1761,12 +1888,13 @@
       <c r="E88" s="10"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="11"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="11"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>44</v>
       </c>
@@ -1776,12 +1904,13 @@
       <c r="E89" s="10"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
-      <c r="H89" s="11"/>
+      <c r="H89" s="9"/>
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="11"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
@@ -1789,10 +1918,11 @@
       <c r="E90" s="10"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="11"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2705,11 +2835,12 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="357">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2717,6 +2848,7 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2724,6 +2856,7 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -2731,6 +2864,7 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -2738,6 +2872,7 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -2745,6 +2880,7 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -2752,6 +2888,7 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -2759,6 +2896,7 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -2766,6 +2904,7 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -2773,6 +2912,7 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -2780,6 +2920,7 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -2787,6 +2928,7 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2794,6 +2936,7 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -2801,6 +2944,7 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
@@ -2808,6 +2952,7 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
@@ -2815,6 +2960,7 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -2822,6 +2968,7 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -2829,6 +2976,7 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
@@ -2836,6 +2984,7 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -2843,6 +2992,7 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -2850,6 +3000,7 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
@@ -2857,6 +3008,7 @@
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:C46"/>
@@ -2864,6 +3016,7 @@
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
@@ -2871,6 +3024,7 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
@@ -2878,6 +3032,7 @@
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
@@ -2885,6 +3040,7 @@
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
@@ -2892,6 +3048,7 @@
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
     <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
@@ -2899,6 +3056,7 @@
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
@@ -2906,6 +3064,7 @@
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
@@ -2913,6 +3072,7 @@
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="F59:F60"/>
     <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:C62"/>
@@ -2920,6 +3080,7 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="C63:C64"/>
@@ -2927,6 +3088,7 @@
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="F63:F64"/>
     <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
@@ -2934,6 +3096,7 @@
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
@@ -2941,6 +3104,7 @@
     <mergeCell ref="E67:E68"/>
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
@@ -2948,6 +3112,7 @@
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -2955,6 +3120,7 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
@@ -2962,6 +3128,7 @@
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
@@ -2969,6 +3136,7 @@
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
@@ -2976,6 +3144,7 @@
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="F77:F78"/>
     <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="C79:C80"/>
@@ -2983,6 +3152,7 @@
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="F79:F80"/>
     <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
@@ -2990,6 +3160,7 @@
     <mergeCell ref="E81:E82"/>
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -2997,6 +3168,7 @@
     <mergeCell ref="E83:E84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:C86"/>
@@ -3004,6 +3176,7 @@
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="F85:F86"/>
     <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
@@ -3011,6 +3184,7 @@
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
     <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
@@ -3018,6 +3192,7 @@
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/lastVersion_student.xlsx
+++ b/data/lastVersion_student.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -64,7 +64,7 @@
     <t>زمان انتخاب شده چهارم</t>
   </si>
   <si>
-    <t>سید علی</t>
+    <t>سد علی</t>
   </si>
   <si>
     <t>کارشناسی</t>
@@ -79,13 +79,13 @@
     <t>تهران</t>
   </si>
   <si>
-    <t>شسیبشسبمکنتبثس</t>
+    <t>من استاد راهنما ام خیلی خوبه</t>
   </si>
   <si>
     <t>۰۹۱۹</t>
   </si>
   <si>
-    <t>اکبر یوسفی</t>
+    <t>علیرضا باقری</t>
   </si>
   <si>
     <t>شنبه ها بعد از ظهر</t>
@@ -97,10 +97,19 @@
     <t>9000</t>
   </si>
   <si>
-    <t>حسن حسنی</t>
+    <t>ایوب حسنی</t>
   </si>
   <si>
     <t>یکشنبه</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>مهندسی عمران</t>
+  </si>
+  <si>
+    <t>س</t>
   </si>
 </sst>
 </file>
@@ -668,13 +677,19 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>

--- a/data/lastVersion_student.xlsx
+++ b/data/lastVersion_student.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -64,52 +64,46 @@
     <t>زمان انتخاب شده چهارم</t>
   </si>
   <si>
-    <t>سد علی</t>
+    <t>sd</t>
   </si>
   <si>
     <t>کارشناسی</t>
   </si>
   <si>
-    <t>مهندسی برق</t>
+    <t>مهندسی متالوژی</t>
   </si>
   <si>
-    <t>قدرت</t>
+    <t>خوردگی و حفاظت از مواد</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>کارشناسی ارشد</t>
+  </si>
+  <si>
+    <t>مهندسی عمران</t>
+  </si>
+  <si>
+    <t>مهندسی زلزله</t>
   </si>
   <si>
     <t>تهران</t>
   </si>
   <si>
-    <t>من استاد راهنما ام خیلی خوبه</t>
+    <t>ت</t>
   </si>
   <si>
-    <t>۰۹۱۹</t>
+    <t>09</t>
   </si>
   <si>
-    <t>علیرضا باقری</t>
+    <t>دکتر وحید بازارگان</t>
   </si>
   <si>
-    <t>شنبه ها بعد از ظهر</t>
-  </si>
-  <si>
-    <t>ممد</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>ایوب حسنی</t>
-  </si>
-  <si>
-    <t>یکشنبه</t>
-  </si>
-  <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>مهندسی عمران</t>
-  </si>
-  <si>
-    <t>س</t>
+    <t>بیست فروردین - یک ساعت توافقی</t>
   </si>
 </sst>
 </file>
@@ -563,7 +557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -583,31 +577,17 @@
         <v>21</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -616,42 +596,38 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -667,7 +643,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -677,19 +653,13 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
